--- a/Design/Main_Data/Character_Data.xlsx
+++ b/Design/Main_Data/Character_Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>char_ID</t>
   </si>
@@ -369,6 +369,14 @@
   </si>
   <si>
     <t>Assets\Resources\Heroes\Prefabs\Yu.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +1187,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1215,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>22</v>
@@ -1224,7 +1232,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>53</v>
